--- a/Entregables/Informe de avance/Informe de Avance - Periodo 6.xlsx
+++ b/Entregables/Informe de avance/Informe de Avance - Periodo 6.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\Unla-RoyalAcademy\Entregables\Informe de avance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuliano\Desktop\ENTREGABLES FINALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculos" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
     <t xml:space="preserve">Desarrollar ABM Estadísticas </t>
   </si>
   <si>
-    <t>Estamos un 5% por encima de la eficiencia que deberiamos tener</t>
+    <t>Estoy al final del período 6</t>
   </si>
   <si>
     <r>
@@ -400,8 +400,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>En base al gráfico, podemos observar que hubo un escaso avance en el período 4 y 5 ya que el EV cada vez se va alejando del PV. Los costos utilizados siguen por debajo de lo planeado.</t>
+      <t>En base al gráfico, podemos observar que hubo un considerable avance en este período comparado a los períodos anteriores, llegando a un EV acumulado de 100, donde los costos aun siguen siendo menores.</t>
     </r>
+  </si>
+  <si>
+    <t>Estamos un 10% por encima de la eficiencia que deberiamos tener</t>
   </si>
   <si>
     <r>
@@ -414,20 +417,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> Aunque sigamos atrasados, logramos aumentar un 0,12 el SPI comparado al período anterior. Estimamos terminar la mayor cantidad de actividades para el próximo período, teniendo en cuenta que matemáticamente es imposible terminarlo al 100%.</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>En base al SPI, que da 0,34, y al análisis del periodo anterior, se llega a la conclusión de que el proyecto cada vez se va retrasando respecto a las metas que debería cumplir. En el próximo período se buscará seguir implementando medidas que aumenten el valor del SPI lo mayor posible.</t>
-    </r>
-  </si>
-  <si>
-    <t>Estoy al final del período 6</t>
   </si>
 </sst>
 </file>
@@ -1655,11 +1646,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,27 +1666,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1723,6 +1694,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1747,41 +1754,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1941,22 +1932,22 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,16 +2026,16 @@
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,16 +2114,16 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,7 +2251,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2657,9 +2647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A49" sqref="A49"/>
+      <selection pane="topRight" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4001,18 +3991,22 @@
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="22"/>
       <c r="I29" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="54"/>
+      <c r="M29" s="21">
+        <v>16</v>
+      </c>
+      <c r="N29" s="54">
+        <v>17</v>
+      </c>
       <c r="O29" s="23"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="54"/>
@@ -4024,15 +4018,15 @@
       <c r="W29" s="54"/>
       <c r="X29" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Y29" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z29" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4116,7 +4110,7 @@
       </c>
       <c r="R31" s="23"/>
       <c r="S31" s="17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T31" s="54">
         <v>8</v>
@@ -4130,7 +4124,7 @@
       </c>
       <c r="Y31" s="18">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z31" s="22">
         <f t="shared" si="6"/>
@@ -4162,12 +4156,14 @@
       <c r="R32" s="23"/>
       <c r="S32" s="17"/>
       <c r="T32" s="54"/>
-      <c r="U32" s="23"/>
+      <c r="U32" s="23">
+        <v>16</v>
+      </c>
       <c r="V32" s="17"/>
       <c r="W32" s="54"/>
       <c r="X32" s="18">
         <f t="shared" ref="X32:X33" si="7">+L32+I32+F32+C32+U32+R32+O32</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y32" s="18">
         <f t="shared" ref="Y32:Y33" si="8">+M32+J32+G32+D32+V32+S32+P32</f>
@@ -4651,7 +4647,7 @@
       </c>
       <c r="F43" s="69">
         <f t="shared" si="23"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G43" s="68">
         <f t="shared" si="23"/>
@@ -4663,7 +4659,7 @@
       </c>
       <c r="I43" s="67">
         <f t="shared" si="23"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J43" s="68">
         <f t="shared" si="23"/>
@@ -4679,11 +4675,11 @@
       </c>
       <c r="M43" s="68">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N43" s="61">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="O43" s="67">
         <f t="shared" si="23"/>
@@ -4703,7 +4699,7 @@
       </c>
       <c r="S43" s="68">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="T43" s="61">
         <f t="shared" si="23"/>
@@ -4711,7 +4707,7 @@
       </c>
       <c r="U43" s="69">
         <f t="shared" si="23"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="V43" s="68">
         <f t="shared" si="23"/>
@@ -4723,15 +4719,15 @@
       </c>
       <c r="X43" s="67">
         <f t="shared" si="23"/>
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y43" s="68">
         <f t="shared" si="23"/>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="Z43" s="61">
         <f t="shared" si="23"/>
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4753,7 +4749,7 @@
       </c>
       <c r="F44" s="38">
         <f t="shared" ref="F44:T44" si="24">+F43+C44</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G44" s="36">
         <f t="shared" si="24"/>
@@ -4765,7 +4761,7 @@
       </c>
       <c r="I44" s="35">
         <f t="shared" si="24"/>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J44" s="36">
         <f t="shared" si="24"/>
@@ -4777,51 +4773,51 @@
       </c>
       <c r="L44" s="38">
         <f t="shared" si="24"/>
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M44" s="36">
         <f t="shared" si="24"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="N44" s="37">
         <f t="shared" si="24"/>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="O44" s="38">
         <f t="shared" si="24"/>
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="P44" s="36">
         <f t="shared" si="24"/>
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="Q44" s="37">
         <f t="shared" si="24"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="R44" s="38">
         <f t="shared" si="24"/>
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="S44" s="36">
         <f t="shared" si="24"/>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="T44" s="37">
         <f t="shared" si="24"/>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="U44" s="38">
         <f>+U43+R44</f>
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="V44" s="36">
         <f>+V43+M44</f>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="W44" s="39">
         <f>+W43+N44</f>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="X44" s="35"/>
       <c r="Y44" s="36"/>
@@ -4848,7 +4844,7 @@
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N49" s="33" t="s">
         <v>10</v>
@@ -4866,14 +4862,14 @@
       </c>
       <c r="B50" s="33">
         <f>R44</f>
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D50" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E50" s="41">
         <f>+B51-B50</f>
-        <v>-113</v>
+        <v>-109</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>29</v>
@@ -4903,14 +4899,14 @@
       </c>
       <c r="B51" s="33">
         <f>S44</f>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E51" s="41">
         <f>+B51-B52</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>33</v>
@@ -4923,7 +4919,7 @@
       </c>
       <c r="N51" s="33">
         <f>+F44</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O51" s="33">
         <f>+G44</f>
@@ -4940,14 +4936,14 @@
       </c>
       <c r="B52" s="33">
         <f>T44</f>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D52" s="33" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="41">
         <f>+B51/B50</f>
-        <v>0.47926267281105989</v>
+        <v>0.51555555555555554</v>
       </c>
       <c r="F52" s="33" t="s">
         <v>37</v>
@@ -4960,7 +4956,7 @@
       </c>
       <c r="N52" s="33">
         <f>+I44</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O52" s="33">
         <f>+J44</f>
@@ -4977,7 +4973,7 @@
       </c>
       <c r="E53" s="41">
         <f>+B51/B52</f>
-        <v>1.2530120481927711</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>41</v>
@@ -4990,15 +4986,15 @@
       </c>
       <c r="N53" s="33">
         <f>+L44</f>
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O53" s="33">
         <f>+M44</f>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="P53" s="33">
         <f>+N44</f>
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5010,7 +5006,7 @@
       </c>
       <c r="E54" s="41">
         <f>+B46-B51</f>
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F54" s="33" t="s">
         <v>45</v>
@@ -5026,15 +5022,15 @@
       </c>
       <c r="N54" s="33">
         <f>O44</f>
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="O54" s="33">
         <f>P44</f>
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="P54" s="33">
         <f>Q44</f>
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5043,7 +5039,7 @@
       </c>
       <c r="E55" s="41">
         <f>+(B46-B51)/(E52*E53)</f>
-        <v>261.43925665680473</v>
+        <v>242.45689655172416</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>49</v>
@@ -5059,15 +5055,15 @@
       </c>
       <c r="N55" s="33">
         <f>R44</f>
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="O55" s="33">
         <f>S44</f>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P55" s="33">
         <f>T44</f>
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5076,7 +5072,7 @@
       </c>
       <c r="E56" s="41">
         <f>+B52+(B46-B51)</f>
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F56" s="33" t="s">
         <v>53</v>
@@ -5092,15 +5088,15 @@
       </c>
       <c r="N56" s="33">
         <f>U44</f>
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="O56" s="33">
         <f>V44</f>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="P56" s="33">
         <f>W44</f>
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5109,7 +5105,7 @@
       </c>
       <c r="E57" s="41">
         <f>+B46/E53</f>
-        <v>208.29807692307691</v>
+        <v>225.00000000000003</v>
       </c>
       <c r="F57" s="33" t="s">
         <v>56</v>
@@ -5127,7 +5123,7 @@
       </c>
       <c r="E58" s="41">
         <f>+B52+(B46-B51)/(E53*E52)</f>
-        <v>344.43925665680473</v>
+        <v>342.45689655172418</v>
       </c>
       <c r="F58" s="33" t="s">
         <v>57</v>
@@ -5145,7 +5141,7 @@
       </c>
       <c r="E59" s="41">
         <f>+(B46-B51)/(B46-B52)</f>
-        <v>0.8820224719101124</v>
+        <v>0.90062111801242239</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>60</v>
@@ -6122,8 +6118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6139,29 +6135,29 @@
   <sheetData>
     <row r="1" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
     </row>
@@ -6169,23 +6165,23 @@
       <c r="B5" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="134">
         <v>43770</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
@@ -6441,18 +6437,18 @@
     </row>
     <row r="22" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -6471,16 +6467,16 @@
     </row>
     <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="117"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="109"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
@@ -6499,16 +6495,16 @@
     </row>
     <row r="24" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="120"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="112"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
@@ -6554,36 +6550,36 @@
       <c r="Z25" s="47"/>
     </row>
     <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="121" t="s">
+      <c r="C32" s="126"/>
+      <c r="D32" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="121" t="s">
+      <c r="E32" s="126"/>
+      <c r="F32" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="122"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="126"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48" t="s">
@@ -6593,14 +6589,14 @@
         <f>+Cálculos!B46</f>
         <v>261</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="50" t="s">
@@ -6608,18 +6604,18 @@
       </c>
       <c r="C34" s="51">
         <f>+Cálculos!B50</f>
-        <v>217</v>
-      </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="129" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="131"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="120"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
@@ -6627,18 +6623,18 @@
       </c>
       <c r="C35" s="51">
         <f>+Cálculos!B51</f>
-        <v>104</v>
-      </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="133"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="123"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48" t="s">
@@ -6646,18 +6642,18 @@
       </c>
       <c r="C36" s="49">
         <f>+Cálculos!B52</f>
-        <v>83</v>
-      </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="133"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="123"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="93" t="s">
@@ -6665,20 +6661,20 @@
       </c>
       <c r="C37" s="49">
         <f>+Cálculos!E50</f>
-        <v>-113</v>
-      </c>
-      <c r="D37" s="100" t="s">
+        <v>-109</v>
+      </c>
+      <c r="D37" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="97" t="s">
+      <c r="E37" s="100"/>
+      <c r="F37" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="99"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="137"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="50" t="s">
@@ -6686,20 +6682,20 @@
       </c>
       <c r="C38" s="51">
         <f>+Cálculos!E51</f>
-        <v>21</v>
-      </c>
-      <c r="D38" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="105"/>
-      <c r="F38" s="102" t="s">
+      <c r="E38" s="138"/>
+      <c r="F38" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="107"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="140"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="50" t="s">
@@ -6707,20 +6703,20 @@
       </c>
       <c r="C39" s="51">
         <f>+Cálculos!E52</f>
-        <v>0.47926267281105989</v>
-      </c>
-      <c r="D39" s="100" t="s">
+        <v>0.51555555555555554</v>
+      </c>
+      <c r="D39" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102" t="s">
+      <c r="E39" s="100"/>
+      <c r="F39" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="104"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="50" t="s">
@@ -6728,20 +6724,20 @@
       </c>
       <c r="C40" s="51">
         <f>+Cálculos!E53</f>
-        <v>1.2530120481927711</v>
-      </c>
-      <c r="D40" s="100" t="s">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D40" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="102" t="s">
+      <c r="E40" s="100"/>
+      <c r="F40" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="104"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="50" t="s">
@@ -6749,20 +6745,20 @@
       </c>
       <c r="C41" s="51">
         <f>+Cálculos!E54</f>
-        <v>157</v>
-      </c>
-      <c r="D41" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102" t="s">
+      <c r="E41" s="100"/>
+      <c r="F41" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="104"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="50" t="s">
@@ -6770,20 +6766,20 @@
       </c>
       <c r="C42" s="51">
         <f>+Cálculos!E55</f>
-        <v>261.43925665680473</v>
-      </c>
-      <c r="D42" s="100" t="s">
+        <v>242.45689655172416</v>
+      </c>
+      <c r="D42" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102" t="s">
+      <c r="E42" s="100"/>
+      <c r="F42" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="104"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="50" t="s">
@@ -6791,20 +6787,20 @@
       </c>
       <c r="C43" s="51">
         <f>+Cálculos!E56</f>
-        <v>240</v>
-      </c>
-      <c r="D43" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="102" t="s">
+      <c r="E43" s="100"/>
+      <c r="F43" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="104"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="103"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="50" t="s">
@@ -6812,20 +6808,20 @@
       </c>
       <c r="C44" s="51">
         <f>+Cálculos!E57</f>
-        <v>208.29807692307691</v>
-      </c>
-      <c r="D44" s="100" t="s">
+        <v>225.00000000000003</v>
+      </c>
+      <c r="D44" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102" t="s">
+      <c r="E44" s="100"/>
+      <c r="F44" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="104"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="103"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="50" t="s">
@@ -6833,20 +6829,20 @@
       </c>
       <c r="C45" s="51">
         <f>+Cálculos!E58</f>
-        <v>344.43925665680473</v>
-      </c>
-      <c r="D45" s="100" t="s">
+        <v>342.45689655172418</v>
+      </c>
+      <c r="D45" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="101"/>
-      <c r="F45" s="102" t="s">
+      <c r="E45" s="100"/>
+      <c r="F45" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="104"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="103"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="52" t="s">
@@ -6854,36 +6850,36 @@
       </c>
       <c r="C46" s="53">
         <f>+Cálculos!E59</f>
-        <v>0.8820224719101124</v>
-      </c>
-      <c r="D46" s="139" t="s">
+        <v>0.90062111801242239</v>
+      </c>
+      <c r="D46" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="140"/>
-      <c r="F46" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="138"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="115"/>
     </row>
     <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="B48" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="106"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="47"/>
@@ -6902,16 +6898,16 @@
     </row>
     <row r="49" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="117"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="109"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
       <c r="N49" s="47"/>
@@ -6930,16 +6926,16 @@
     </row>
     <row r="50" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="120"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="112"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
       <c r="N50" s="47"/>
@@ -6986,16 +6982,16 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="135" t="s">
+      <c r="I54" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="J54" s="135"/>
-      <c r="K54" s="135"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7945,32 +7941,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="B48:K50"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B22:K24"/>
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F45:K45"/>
@@ -7985,6 +7955,32 @@
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:K40"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B22:K24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="B48:K50"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Entregables/Informe de avance/Informe de Avance - Periodo 6.xlsx
+++ b/Entregables/Informe de avance/Informe de Avance - Periodo 6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuliano\Desktop\ENTREGABLES FINALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuliano\Desktop\Unla-RoyalAcademy\Entregables\Informe de avance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,15 +93,6 @@
     <t>Intregración ABM notas con Web</t>
   </si>
   <si>
-    <t>Vista de Administradores</t>
-  </si>
-  <si>
-    <t>Vista generación de exámen</t>
-  </si>
-  <si>
-    <t>Vista notas exámenes</t>
-  </si>
-  <si>
     <t>parciales</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
   </si>
   <si>
     <t>Desarrollo vista de mantenimiento de examen por alumno</t>
-  </si>
-  <si>
-    <t>Desarrollar vista de examen</t>
   </si>
   <si>
     <t>Planned Value</t>
@@ -419,6 +407,18 @@
       </rPr>
       <t xml:space="preserve"> Aunque sigamos atrasados, logramos aumentar un 0,12 el SPI comparado al período anterior. Estimamos terminar la mayor cantidad de actividades para el próximo período, teniendo en cuenta que matemáticamente es imposible terminarlo al 100%.</t>
     </r>
+  </si>
+  <si>
+    <t>Desarrollo vista de examen</t>
+  </si>
+  <si>
+    <t>Desarrollo vista notas exámenes</t>
+  </si>
+  <si>
+    <t>Desarrollo vista generación de exámen</t>
+  </si>
+  <si>
+    <t>Desarrollo vista de Administradores</t>
   </si>
 </sst>
 </file>
@@ -1646,12 +1646,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1666,6 +1665,27 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1694,42 +1714,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1754,25 +1738,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2647,9 +2647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O29" sqref="O29"/>
+      <selection pane="topRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="74">
         <v>8</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="75">
         <v>1</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="76">
         <v>6</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B6" s="76">
         <v>6</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" s="77">
         <v>6</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B10" s="31">
         <v>6</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B12" s="31">
         <v>6</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B14" s="31">
         <v>6</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B16" s="31">
         <v>4</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B17" s="31">
         <v>4</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B18" s="31">
         <v>6</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B20" s="31">
         <v>4</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B21" s="31">
         <v>4</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B22" s="31">
         <v>2</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B23" s="31">
         <v>6</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B25" s="31">
         <v>6</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B26" s="31">
         <v>6</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B27" s="31">
         <v>6</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" s="31">
         <v>8</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B29" s="31">
         <v>16</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="B30" s="31">
         <v>16</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B31" s="31">
         <v>16</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B32" s="31">
         <v>16</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B33" s="78">
         <v>16</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B34" s="31">
         <v>4</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B35" s="31">
         <v>8</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B36" s="31">
         <v>4</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B37" s="31">
         <v>4</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B38" s="78">
         <v>10</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" s="31">
         <v>6</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40" s="31">
         <v>4</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" s="31">
         <v>4</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="89" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" s="91">
         <v>8</v>
@@ -4631,7 +4631,7 @@
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="73"/>
       <c r="B43" s="71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C43" s="67">
         <f t="shared" ref="C43:Z43" si="23">SUM(C3:C42)</f>
@@ -4733,7 +4733,7 @@
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33"/>
       <c r="B44" s="34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C44" s="35">
         <f>+C43</f>
@@ -4826,7 +4826,7 @@
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B46" s="33">
         <f>SUM(B3:B42)</f>
@@ -4835,16 +4835,16 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N49" s="33" t="s">
         <v>10</v>
@@ -4865,20 +4865,20 @@
         <v>225</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E50" s="41">
         <f>+B51-B50</f>
         <v>-109</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M50" s="33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N50" s="33">
         <f>+C44</f>
@@ -4902,20 +4902,20 @@
         <v>116</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E51" s="41">
         <f>+B51-B52</f>
         <v>16</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M51" s="33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N51" s="33">
         <f>+F44</f>
@@ -4939,20 +4939,20 @@
         <v>100</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E52" s="41">
         <f>+B51/B50</f>
         <v>0.51555555555555554</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M52" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N52" s="33">
         <f>+I44</f>
@@ -4969,20 +4969,20 @@
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E53" s="41">
         <f>+B51/B52</f>
         <v>1.1599999999999999</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M53" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N53" s="33">
         <f>+L44</f>
@@ -4999,26 +4999,26 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E54" s="41">
         <f>+B46-B51</f>
         <v>145</v>
       </c>
       <c r="F54" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J54" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="42" t="s">
         <v>45</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M54" s="42" t="s">
-        <v>48</v>
       </c>
       <c r="N54" s="33">
         <f>O44</f>
@@ -5035,23 +5035,23 @@
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E55" s="41">
         <f>+(B46-B51)/(E52*E53)</f>
         <v>242.45689655172416</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M55" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N55" s="33">
         <f>R44</f>
@@ -5068,23 +5068,23 @@
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D56" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E56" s="41">
         <f>+B52+(B46-B51)</f>
         <v>245</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M56" s="42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N56" s="33">
         <f>U44</f>
@@ -5101,53 +5101,53 @@
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E57" s="41">
         <f>+B46/E53</f>
         <v>225.00000000000003</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E58" s="41">
         <f>+B52+(B46-B51)/(E53*E52)</f>
         <v>342.45689655172418</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E59" s="41">
         <f>+(B46-B51)/(B46-B52)</f>
         <v>0.90062111801242239</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6135,53 +6135,53 @@
   <sheetData>
     <row r="1" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
+      <c r="B2" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="133" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="134">
+        <v>62</v>
+      </c>
+      <c r="C5" s="110">
         <v>43770</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
+        <v>63</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
@@ -6437,18 +6437,18 @@
     </row>
     <row r="22" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="106"/>
+      <c r="B22" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -6467,16 +6467,16 @@
     </row>
     <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="109"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
@@ -6495,16 +6495,16 @@
     </row>
     <row r="24" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="112"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="120"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
@@ -6550,53 +6550,53 @@
       <c r="Z25" s="47"/>
     </row>
     <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
+      <c r="B27" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="126"/>
-      <c r="D32" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="126"/>
-      <c r="F32" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="126"/>
+      <c r="B32" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="122"/>
+      <c r="D32" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="122"/>
+      <c r="F32" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="122"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" s="49">
         <f>+Cálculos!B46</f>
         <v>261</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="132"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="128"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="50" t="s">
@@ -6606,16 +6606,16 @@
         <f>+Cálculos!B50</f>
         <v>225</v>
       </c>
-      <c r="D34" s="99"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="120"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="131"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
@@ -6625,16 +6625,16 @@
         <f>+Cálculos!B51</f>
         <v>116</v>
       </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="123"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="133"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48" t="s">
@@ -6644,242 +6644,242 @@
         <f>+Cálculos!B52</f>
         <v>100</v>
       </c>
-      <c r="D36" s="99"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="123"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="133"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37" s="49">
         <f>+Cálculos!E50</f>
         <v>-109</v>
       </c>
-      <c r="D37" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="100"/>
-      <c r="F37" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="137"/>
+      <c r="D37" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="101"/>
+      <c r="F37" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="99"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C38" s="51">
         <f>+Cálculos!E51</f>
         <v>16</v>
       </c>
-      <c r="D38" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="138"/>
-      <c r="F38" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="140"/>
+      <c r="D38" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="105"/>
+      <c r="F38" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="107"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39" s="51">
         <f>+Cálculos!E52</f>
         <v>0.51555555555555554</v>
       </c>
-      <c r="D39" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="100"/>
-      <c r="F39" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="103"/>
+      <c r="D39" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C40" s="51">
         <f>+Cálculos!E53</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="D40" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
+      <c r="D40" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="101"/>
+      <c r="F40" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="51">
         <f>+Cálculos!E54</f>
         <v>145</v>
       </c>
-      <c r="D41" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="100"/>
-      <c r="F41" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="103"/>
+      <c r="D41" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="101"/>
+      <c r="F41" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" s="51">
         <f>+Cálculos!E55</f>
         <v>242.45689655172416</v>
       </c>
-      <c r="D42" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="103"/>
+      <c r="D42" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="101"/>
+      <c r="F42" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C43" s="51">
         <f>+Cálculos!E56</f>
         <v>245</v>
       </c>
-      <c r="D43" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="100"/>
-      <c r="F43" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="103"/>
+      <c r="D43" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="101"/>
+      <c r="F43" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44" s="51">
         <f>+Cálculos!E57</f>
         <v>225.00000000000003</v>
       </c>
-      <c r="D44" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="100"/>
-      <c r="F44" s="101" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="103"/>
+      <c r="D44" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="101"/>
+      <c r="F44" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="104"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C45" s="51">
         <f>+Cálculos!E58</f>
         <v>342.45689655172418</v>
       </c>
-      <c r="D45" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="100"/>
-      <c r="F45" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="103"/>
+      <c r="D45" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="101"/>
+      <c r="F45" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="104"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C46" s="53">
         <f>+Cálculos!E59</f>
         <v>0.90062111801242239</v>
       </c>
-      <c r="D46" s="116" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="117"/>
-      <c r="F46" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="115"/>
+      <c r="D46" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="140"/>
+      <c r="F46" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="138"/>
     </row>
     <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="106"/>
+      <c r="B48" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="47"/>
@@ -6898,16 +6898,16 @@
     </row>
     <row r="49" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="109"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
       <c r="N49" s="47"/>
@@ -6926,16 +6926,16 @@
     </row>
     <row r="50" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="112"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="120"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
       <c r="N50" s="47"/>
@@ -6982,16 +6982,16 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
+      <c r="I54" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="135"/>
+      <c r="K54" s="135"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7941,6 +7941,32 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="B48:K50"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B22:K24"/>
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F45:K45"/>
@@ -7955,32 +7981,6 @@
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:K40"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B22:K24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="B48:K50"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Entregables/Informe de avance/Informe de Avance - Periodo 6.xlsx
+++ b/Entregables/Informe de avance/Informe de Avance - Periodo 6.xlsx
@@ -369,6 +369,35 @@
     <t>Estoy al final del período 6</t>
   </si>
   <si>
+    <t>Desarrollo vista de examen</t>
+  </si>
+  <si>
+    <t>Desarrollo vista notas exámenes</t>
+  </si>
+  <si>
+    <t>Desarrollo vista generación de exámen</t>
+  </si>
+  <si>
+    <t>Desarrollo vista de Administradores</t>
+  </si>
+  <si>
+    <t>Estamos un 11% por encima de la eficiencia que deberiamos tener</t>
+  </si>
+  <si>
+    <r>
+      <t>Análisis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Aunque sigamos atrasados, logramos aumentar un 0,23 el SPI comparado al período anterior. Estimamos terminar la mayor cantidad de actividades para el próximo período, teniendo en cuenta que matemáticamente es imposible terminarlo al 100%.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Análisis:</t>
     </r>
@@ -388,37 +417,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>En base al gráfico, podemos observar que hubo un considerable avance en este período comparado a los períodos anteriores, llegando a un EV acumulado de 100, donde los costos aun siguen siendo menores.</t>
+      <t>En base al gráfico, podemos observar que hubo un considerable avance en este período comparado a los períodos anteriores, llegando a un EV acumulado de 144, donde los costos aun siguen siendo menores.</t>
     </r>
-  </si>
-  <si>
-    <t>Estamos un 10% por encima de la eficiencia que deberiamos tener</t>
-  </si>
-  <si>
-    <r>
-      <t>Análisis:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Aunque sigamos atrasados, logramos aumentar un 0,12 el SPI comparado al período anterior. Estimamos terminar la mayor cantidad de actividades para el próximo período, teniendo en cuenta que matemáticamente es imposible terminarlo al 100%.</t>
-    </r>
-  </si>
-  <si>
-    <t>Desarrollo vista de examen</t>
-  </si>
-  <si>
-    <t>Desarrollo vista notas exámenes</t>
-  </si>
-  <si>
-    <t>Desarrollo vista generación de exámen</t>
-  </si>
-  <si>
-    <t>Desarrollo vista de Administradores</t>
   </si>
 </sst>
 </file>
@@ -1646,11 +1646,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1665,27 +1666,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1714,6 +1694,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1738,41 +1754,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2032,10 +2032,10 @@
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,10 +2120,10 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,9 +2647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3007,8 +3007,12 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="54"/>
       <c r="R7" s="23"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="54"/>
+      <c r="S7" s="17">
+        <v>4</v>
+      </c>
+      <c r="T7" s="54">
+        <v>5</v>
+      </c>
       <c r="U7" s="23"/>
       <c r="V7" s="17"/>
       <c r="W7" s="54"/>
@@ -3018,11 +3022,11 @@
       </c>
       <c r="Y7" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z7" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3097,8 +3101,12 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="54"/>
       <c r="R9" s="23"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="54"/>
+      <c r="S9" s="17">
+        <v>3</v>
+      </c>
+      <c r="T9" s="54">
+        <v>4</v>
+      </c>
       <c r="U9" s="23"/>
       <c r="V9" s="17"/>
       <c r="W9" s="54"/>
@@ -3108,11 +3116,11 @@
       </c>
       <c r="Y9" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z9" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3189,8 +3197,12 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="23"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="54"/>
+      <c r="S11" s="17">
+        <v>3</v>
+      </c>
+      <c r="T11" s="54">
+        <v>4</v>
+      </c>
       <c r="U11" s="23"/>
       <c r="V11" s="17"/>
       <c r="W11" s="54"/>
@@ -3200,11 +3212,11 @@
       </c>
       <c r="Y11" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3279,8 +3291,12 @@
       <c r="P13" s="17"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="23"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="54"/>
+      <c r="S13" s="17">
+        <v>4</v>
+      </c>
+      <c r="T13" s="54">
+        <v>3</v>
+      </c>
       <c r="U13" s="23"/>
       <c r="V13" s="17"/>
       <c r="W13" s="54"/>
@@ -3290,11 +3306,11 @@
       </c>
       <c r="Y13" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3514,8 +3530,12 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="54"/>
       <c r="R18" s="23"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="54"/>
+      <c r="S18" s="17">
+        <v>6</v>
+      </c>
+      <c r="T18" s="54">
+        <v>8</v>
+      </c>
       <c r="U18" s="23"/>
       <c r="V18" s="17"/>
       <c r="W18" s="54"/>
@@ -3525,11 +3545,11 @@
       </c>
       <c r="Y18" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z18" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3557,8 +3577,12 @@
       <c r="P19" s="17"/>
       <c r="Q19" s="54"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="54"/>
+      <c r="S19" s="17">
+        <v>4</v>
+      </c>
+      <c r="T19" s="54">
+        <v>7</v>
+      </c>
       <c r="U19" s="23"/>
       <c r="V19" s="17"/>
       <c r="W19" s="54"/>
@@ -3568,11 +3592,11 @@
       </c>
       <c r="Y19" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3600,8 +3624,12 @@
       <c r="P20" s="17"/>
       <c r="Q20" s="54"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="54"/>
+      <c r="S20" s="17">
+        <v>4</v>
+      </c>
+      <c r="T20" s="54">
+        <v>8</v>
+      </c>
       <c r="U20" s="23"/>
       <c r="V20" s="17"/>
       <c r="W20" s="54"/>
@@ -3611,11 +3639,11 @@
       </c>
       <c r="Y20" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z20" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4031,7 +4059,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B30" s="31">
         <v>16</v>
@@ -4076,7 +4104,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B31" s="31">
         <v>16</v>
@@ -4133,7 +4161,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B32" s="31">
         <v>16</v>
@@ -4176,7 +4204,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B33" s="78">
         <v>16</v>
@@ -4387,12 +4415,8 @@
       <c r="P37" s="17"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="17">
-        <v>2</v>
-      </c>
-      <c r="T37" s="54">
-        <v>4</v>
-      </c>
+      <c r="S37" s="17"/>
+      <c r="T37" s="54"/>
       <c r="U37" s="23"/>
       <c r="V37" s="17"/>
       <c r="W37" s="54"/>
@@ -4402,11 +4426,11 @@
       </c>
       <c r="Y37" s="18">
         <f t="shared" ref="Y37" si="14">+M37+J37+G37+D37+V37+S37+P37</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
         <f t="shared" ref="Z37" si="15">+N37+K37+H37+E37+W37+T37+Q37</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4699,11 +4723,11 @@
       </c>
       <c r="S43" s="68">
         <f t="shared" si="23"/>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="T43" s="61">
         <f t="shared" si="23"/>
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="U43" s="69">
         <f t="shared" si="23"/>
@@ -4723,11 +4747,11 @@
       </c>
       <c r="Y43" s="68">
         <f t="shared" si="23"/>
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="Z43" s="61">
         <f t="shared" si="23"/>
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4801,23 +4825,23 @@
       </c>
       <c r="S44" s="36">
         <f t="shared" si="24"/>
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="T44" s="37">
         <f t="shared" si="24"/>
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="U44" s="38">
         <f>+U43+R44</f>
         <v>269</v>
       </c>
       <c r="V44" s="36">
-        <f>+V43+M44</f>
-        <v>78</v>
+        <f>+V43+S44</f>
+        <v>142</v>
       </c>
       <c r="W44" s="39">
-        <f>+W43+N44</f>
-        <v>70</v>
+        <f>+W43+T44</f>
+        <v>135</v>
       </c>
       <c r="X44" s="35"/>
       <c r="Y44" s="36"/>
@@ -4869,7 +4893,7 @@
       </c>
       <c r="E50" s="41">
         <f>+B51-B50</f>
-        <v>-109</v>
+        <v>-83</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>26</v>
@@ -4899,14 +4923,14 @@
       </c>
       <c r="B51" s="33">
         <f>S44</f>
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="41">
         <f>+B51-B52</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>30</v>
@@ -4936,14 +4960,14 @@
       </c>
       <c r="B52" s="33">
         <f>T44</f>
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D52" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E52" s="41">
         <f>+B51/B50</f>
-        <v>0.51555555555555554</v>
+        <v>0.63111111111111107</v>
       </c>
       <c r="F52" s="33" t="s">
         <v>34</v>
@@ -4973,7 +4997,7 @@
       </c>
       <c r="E53" s="41">
         <f>+B51/B52</f>
-        <v>1.1599999999999999</v>
+        <v>1.0518518518518518</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>38</v>
@@ -5006,7 +5030,7 @@
       </c>
       <c r="E54" s="41">
         <f>+B46-B51</f>
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="F54" s="33" t="s">
         <v>42</v>
@@ -5039,7 +5063,7 @@
       </c>
       <c r="E55" s="41">
         <f>+(B46-B51)/(E52*E53)</f>
-        <v>242.45689655172416</v>
+        <v>179.26130728030154</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>46</v>
@@ -5059,11 +5083,11 @@
       </c>
       <c r="O55" s="33">
         <f>S44</f>
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="P55" s="33">
         <f>T44</f>
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5072,7 +5096,7 @@
       </c>
       <c r="E56" s="41">
         <f>+B52+(B46-B51)</f>
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F56" s="33" t="s">
         <v>50</v>
@@ -5092,11 +5116,11 @@
       </c>
       <c r="O56" s="33">
         <f>V44</f>
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="P56" s="33">
         <f>W44</f>
-        <v>70</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5105,7 +5129,7 @@
       </c>
       <c r="E57" s="41">
         <f>+B46/E53</f>
-        <v>225.00000000000003</v>
+        <v>248.13380281690141</v>
       </c>
       <c r="F57" s="33" t="s">
         <v>53</v>
@@ -5123,7 +5147,7 @@
       </c>
       <c r="E58" s="41">
         <f>+B52+(B46-B51)/(E53*E52)</f>
-        <v>342.45689655172418</v>
+        <v>314.26130728030154</v>
       </c>
       <c r="F58" s="33" t="s">
         <v>54</v>
@@ -5141,7 +5165,7 @@
       </c>
       <c r="E59" s="41">
         <f>+(B46-B51)/(B46-B52)</f>
-        <v>0.90062111801242239</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>57</v>
@@ -6118,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:K50"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6135,29 +6159,29 @@
   <sheetData>
     <row r="1" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
     </row>
@@ -6165,23 +6189,23 @@
       <c r="B5" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="134">
         <v>43770</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
@@ -6437,18 +6461,18 @@
     </row>
     <row r="22" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
+      <c r="B22" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -6467,16 +6491,16 @@
     </row>
     <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="117"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="109"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
@@ -6495,16 +6519,16 @@
     </row>
     <row r="24" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="120"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="112"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
@@ -6550,36 +6574,36 @@
       <c r="Z25" s="47"/>
     </row>
     <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="121" t="s">
+      <c r="C32" s="126"/>
+      <c r="D32" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="121" t="s">
+      <c r="E32" s="126"/>
+      <c r="F32" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="122"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="126"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48" t="s">
@@ -6589,14 +6613,14 @@
         <f>+Cálculos!B46</f>
         <v>261</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="50" t="s">
@@ -6606,54 +6630,54 @@
         <f>+Cálculos!B50</f>
         <v>225</v>
       </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="129" t="s">
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="131"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="120"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="51">
-        <f>+Cálculos!B51</f>
-        <v>116</v>
-      </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="97" t="s">
+        <f>+Cálculos!B52</f>
+        <v>135</v>
+      </c>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="133"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="123"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="49">
-        <f>+Cálculos!B52</f>
-        <v>100</v>
-      </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="97" t="s">
+        <f>+Cálculos!B51</f>
+        <v>142</v>
+      </c>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="133"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="123"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="93" t="s">
@@ -6661,20 +6685,20 @@
       </c>
       <c r="C37" s="49">
         <f>+Cálculos!E50</f>
-        <v>-109</v>
-      </c>
-      <c r="D37" s="100" t="s">
+        <v>-83</v>
+      </c>
+      <c r="D37" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="97" t="s">
+      <c r="E37" s="100"/>
+      <c r="F37" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="99"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="137"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="50" t="s">
@@ -6682,20 +6706,20 @@
       </c>
       <c r="C38" s="51">
         <f>+Cálculos!E51</f>
-        <v>16</v>
-      </c>
-      <c r="D38" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="105"/>
-      <c r="F38" s="102" t="s">
+      <c r="E38" s="138"/>
+      <c r="F38" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="107"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="140"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="50" t="s">
@@ -6703,20 +6727,20 @@
       </c>
       <c r="C39" s="51">
         <f>+Cálculos!E52</f>
-        <v>0.51555555555555554</v>
-      </c>
-      <c r="D39" s="100" t="s">
+        <v>0.63111111111111107</v>
+      </c>
+      <c r="D39" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102" t="s">
+      <c r="E39" s="100"/>
+      <c r="F39" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="104"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="50" t="s">
@@ -6724,20 +6748,20 @@
       </c>
       <c r="C40" s="51">
         <f>+Cálculos!E53</f>
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D40" s="100" t="s">
+        <v>1.0518518518518518</v>
+      </c>
+      <c r="D40" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="102" t="s">
+      <c r="E40" s="100"/>
+      <c r="F40" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="104"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="50" t="s">
@@ -6745,20 +6769,20 @@
       </c>
       <c r="C41" s="51">
         <f>+Cálculos!E54</f>
-        <v>145</v>
-      </c>
-      <c r="D41" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102" t="s">
+      <c r="E41" s="100"/>
+      <c r="F41" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="104"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="50" t="s">
@@ -6766,20 +6790,20 @@
       </c>
       <c r="C42" s="51">
         <f>+Cálculos!E55</f>
-        <v>242.45689655172416</v>
-      </c>
-      <c r="D42" s="100" t="s">
+        <v>179.26130728030154</v>
+      </c>
+      <c r="D42" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102" t="s">
+      <c r="E42" s="100"/>
+      <c r="F42" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="104"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="50" t="s">
@@ -6787,20 +6811,20 @@
       </c>
       <c r="C43" s="51">
         <f>+Cálculos!E56</f>
-        <v>245</v>
-      </c>
-      <c r="D43" s="100" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="102" t="s">
+      <c r="E43" s="100"/>
+      <c r="F43" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="104"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="103"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="50" t="s">
@@ -6808,20 +6832,20 @@
       </c>
       <c r="C44" s="51">
         <f>+Cálculos!E57</f>
-        <v>225.00000000000003</v>
-      </c>
-      <c r="D44" s="100" t="s">
+        <v>248.13380281690141</v>
+      </c>
+      <c r="D44" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102" t="s">
+      <c r="E44" s="100"/>
+      <c r="F44" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="104"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="103"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="50" t="s">
@@ -6829,20 +6853,20 @@
       </c>
       <c r="C45" s="51">
         <f>+Cálculos!E58</f>
-        <v>342.45689655172418</v>
-      </c>
-      <c r="D45" s="100" t="s">
+        <v>314.26130728030154</v>
+      </c>
+      <c r="D45" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="101"/>
-      <c r="F45" s="102" t="s">
+      <c r="E45" s="100"/>
+      <c r="F45" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="104"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="103"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="52" t="s">
@@ -6850,36 +6874,36 @@
       </c>
       <c r="C46" s="53">
         <f>+Cálculos!E59</f>
-        <v>0.90062111801242239</v>
-      </c>
-      <c r="D46" s="139" t="s">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="D46" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="140"/>
-      <c r="F46" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="138"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="115"/>
     </row>
     <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="112" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="B48" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="106"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="47"/>
@@ -6898,16 +6922,16 @@
     </row>
     <row r="49" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="117"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="109"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
       <c r="N49" s="47"/>
@@ -6926,16 +6950,16 @@
     </row>
     <row r="50" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="120"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="112"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
       <c r="N50" s="47"/>
@@ -6982,16 +7006,16 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="135" t="s">
+      <c r="I54" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="J54" s="135"/>
-      <c r="K54" s="135"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7941,32 +7965,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="B48:K50"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B22:K24"/>
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F45:K45"/>
@@ -7981,6 +7979,32 @@
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:K40"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B22:K24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="B48:K50"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
